--- a/biology/Botanique/Nicolas_le_Jardinier/Nicolas_le_Jardinier.xlsx
+++ b/biology/Botanique/Nicolas_le_Jardinier/Nicolas_le_Jardinier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Raymond Mondet, alias Nicolas le Jardinier, né le 30 décembre 1928 à Romainville et mort le 21 novembre 2018 à Montreuil[1], est un journaliste, animateur de télévision et de radio et chroniqueur français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Raymond Mondet, alias Nicolas le Jardinier, né le 30 décembre 1928 à Romainville et mort le 21 novembre 2018 à Montreuil, est un journaliste, animateur de télévision et de radio et chroniqueur français.
 Ancien rédacteur en chef du magazine Rustica, il a animé plusieurs émissions sur le jardinage sur la chaîne TF1 dans les années 1980.
 </t>
         </is>
@@ -514,19 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Famille et études
-Son père, Rémi Mondet (1892-1976), est un maréchal-ferrant natif de Coslédaà-Lube-Boast (Pyrénées-Atlantiques)[2], et exerçant à Romainville. Après une première expérience dans les assurances[3], Raymond Mondet devient jardinier. En 1944[4], il reprend ses études à l'école du Breuil et devient jardinier quatre branches en 1948, le plus haut niveau d'études de jardinage[5].
-Carrière médiatique
-Raymond Mondet est rédacteur en chef du magazine Rustica[6] à partir de 1958[7]. En 1969, l'éditeur Georges Dargaud, qui a racheté Rustica, lui donne l'idée du pseudonyme « Nicolas le Jardinier ». Après avoir exercé pendant 25 ans au magazine, Nicolas le Jardinier se tourne vers la télévision et la radio.
-Il devient à partir de 1980 le célèbre jardinier du paysage audiovisuel français et présente sur TF1 une émission intitulée Cultivons notre jardin[8]. À partir de 1982, il participe à La Maison de TF1 présentée par Évelyne Dhéliat et Jean Lanzi. Nicolas le Jardinier est l'un des « spécialistes » et tient une rubrique sur le jardinage dans laquelle il compose un potager et un jardin d'agrément. Il anime ensuite Le jardin de Nicolas sur TF1 et a travaillé ensuite sur La Cinq jusqu'en 1992.
-À la radio, il a été chroniqueur sur Europe 1.
-Vie privée
-Il se marie en 1958, mais le couple se sépare rapidement. Il refuse pendant plusieurs années de divorcer par conviction religieuse.
-Après avoir accepté de le faire, il se remarie. Ils ont, lui et son ancienne femme, une fille : Danièle (née en 1959) et un petit-fils : Benoît (né en 1979)[9].
-Fin de vie et mort
-Retiré du monde des médias, Raymond Mondet s'installe définitivement dans une propriété héritée de ses grands-parents à Romainville. Il y élève poules, lapins, chèvres, y récolte son miel[10] et cultive un grand jardin. Il donne, par ailleurs des conférences partout en France.
-Il meurt le 21 novembre 2018 à 89 ans à Montreuil[11].
-Il est inhumé au cimetière ancien de Romainville (sépulture n°208, 2°div, 3°rangée, 3°fosse)[12].
+          <t>Famille et études</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son père, Rémi Mondet (1892-1976), est un maréchal-ferrant natif de Coslédaà-Lube-Boast (Pyrénées-Atlantiques), et exerçant à Romainville. Après une première expérience dans les assurances, Raymond Mondet devient jardinier. En 1944, il reprend ses études à l'école du Breuil et devient jardinier quatre branches en 1948, le plus haut niveau d'études de jardinage.
 </t>
         </is>
       </c>
@@ -552,10 +558,128 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Carrière médiatique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Raymond Mondet est rédacteur en chef du magazine Rustica à partir de 1958. En 1969, l'éditeur Georges Dargaud, qui a racheté Rustica, lui donne l'idée du pseudonyme « Nicolas le Jardinier ». Après avoir exercé pendant 25 ans au magazine, Nicolas le Jardinier se tourne vers la télévision et la radio.
+Il devient à partir de 1980 le célèbre jardinier du paysage audiovisuel français et présente sur TF1 une émission intitulée Cultivons notre jardin. À partir de 1982, il participe à La Maison de TF1 présentée par Évelyne Dhéliat et Jean Lanzi. Nicolas le Jardinier est l'un des « spécialistes » et tient une rubrique sur le jardinage dans laquelle il compose un potager et un jardin d'agrément. Il anime ensuite Le jardin de Nicolas sur TF1 et a travaillé ensuite sur La Cinq jusqu'en 1992.
+À la radio, il a été chroniqueur sur Europe 1.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Nicolas_le_Jardinier</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nicolas_le_Jardinier</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Vie privée</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se marie en 1958, mais le couple se sépare rapidement. Il refuse pendant plusieurs années de divorcer par conviction religieuse.
+Après avoir accepté de le faire, il se remarie. Ils ont, lui et son ancienne femme, une fille : Danièle (née en 1959) et un petit-fils : Benoît (né en 1979).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Nicolas_le_Jardinier</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nicolas_le_Jardinier</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fin de vie et mort</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Retiré du monde des médias, Raymond Mondet s'installe définitivement dans une propriété héritée de ses grands-parents à Romainville. Il y élève poules, lapins, chèvres, y récolte son miel et cultive un grand jardin. Il donne, par ailleurs des conférences partout en France.
+Il meurt le 21 novembre 2018 à 89 ans à Montreuil.
+Il est inhumé au cimetière ancien de Romainville (sépulture n°208, 2°div, 3°rangée, 3°fosse).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Nicolas_le_Jardinier</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nicolas_le_Jardinier</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Sous le nom de Raymond Mondet :
 L'Univers de notre jardin, et Coll., B. Grasset, 1967, (ASIN B0014OJ8LI)
@@ -568,95 +692,101 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Nicolas_le_Jardinier</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Nicolas_le_Jardinier</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Nicolas_le_Jardinier</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nicolas_le_Jardinier</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Discographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1985, il a enregistré un 45 Tours deux titres, dans lequel il interprète les chansons Bonjour, Nicolas ! et On a tous besoin de fleurs avec Pato.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Nicolas_le_Jardinier</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Nicolas_le_Jardinier</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Nicolas_le_Jardinier</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nicolas_le_Jardinier</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Prix</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Prix Renaissance des arts 2000[13].</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Nicolas_le_Jardinier</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Nicolas_le_Jardinier</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Prix Renaissance des arts 2000.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Nicolas_le_Jardinier</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nicolas_le_Jardinier</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Décorations</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Commandeur de l'ordre national du Mérite (1999) ; officier (1993)[14]
- Commandeur de l'ordre du Mérite agricole (1963)[15]</t>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Commandeur de l'ordre national du Mérite (1999) ; officier (1993)
+ Commandeur de l'ordre du Mérite agricole (1963)</t>
         </is>
       </c>
     </row>
